--- a/conditions/exitQuestions.xlsx
+++ b/conditions/exitQuestions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/anme7126_colorado_edu/Documents/Grad School/Research/Dissertation/CPlearning_experiment6/psychopy_files_exp6/conditions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/anme7126_colorado_edu/Documents/Grad School/Research/Dissertation/CPlearning_experiment6/oddball_labeled_category_learning_experiment/conditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{AA3CFE8A-37D6-42E4-B5DC-FAA2C83451AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CBB55F3-4404-456C-B220-83E48456234B}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{AA3CFE8A-37D6-42E4-B5DC-FAA2C83451AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70622D1E-AC63-405C-9511-26D63B1A45EA}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2925" windowWidth="21600" windowHeight="11295" xr2:uid="{F577B6CA-D663-4AC3-ABCA-90FB35D09341}"/>
+    <workbookView xWindow="2025" yWindow="2475" windowWidth="21600" windowHeight="11295" xr2:uid="{F577B6CA-D663-4AC3-ABCA-90FB35D09341}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>Did you come up with names of your own for the two species? If so, did it help you to categorize them?</t>
   </si>
   <si>
-    <t>Did you notice any change from the first half of the experiment to the second when the training switched to another part of the planet?</t>
+    <t>Did you notice any change from the first half of the experiment to the second when the training switched to another part of the planet? If so, please explain.</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
